--- a/writable/template/template_export_po.xlsx
+++ b/writable/template/template_export_po.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Dbig/writable/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D8293C-DD7C-F44C-81C0-1C05AD098BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1FD6D9-05DE-B447-A623-1662C6EC0BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15480" xr2:uid="{121B3595-B946-4EB3-A444-621BA2FB6EAD}"/>
   </bookViews>
@@ -161,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
@@ -173,10 +173,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,23 +492,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3BAD26-DF60-4598-8F68-331591CF5B28}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="27.1640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" style="4" customWidth="1"/>
     <col min="9" max="9" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="23.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="18.33203125" style="1" customWidth="1"/>
@@ -566,7 +566,7 @@
       <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
